--- a/output/fit_clients/fit_round_414.xlsx
+++ b/output/fit_clients/fit_round_414.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2290904873.899294</v>
+        <v>1627537287.676662</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08013087621709643</v>
+        <v>0.07534817339376712</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03506940538121529</v>
+        <v>0.04388556606930664</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1145452471.695634</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2507921983.817889</v>
+        <v>2587204284.021808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1402841843097659</v>
+        <v>0.1161899585962549</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03820187005438367</v>
+        <v>0.04054686176158949</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1253961110.64408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4501482096.35876</v>
+        <v>3450976554.330574</v>
       </c>
       <c r="F4" t="n">
-        <v>0.156750008640265</v>
+        <v>0.1224419316134895</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03395064813654847</v>
+        <v>0.03532385669524597</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>149</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2250741097.892287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4140958753.627435</v>
+        <v>3875387022.213373</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08652675409923051</v>
+        <v>0.09067057687978718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03168711480268966</v>
+        <v>0.046323971421439</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>153</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2070479371.228301</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2857860212.421644</v>
+        <v>2106673668.128236</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09825035676548678</v>
+        <v>0.1283668761725362</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03910860282769658</v>
+        <v>0.04720633817860556</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>76</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1428930042.982421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2018571761.974422</v>
+        <v>2965971192.936816</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07149591873561527</v>
+        <v>0.07311467856410654</v>
       </c>
       <c r="G7" t="n">
-        <v>0.045879052289987</v>
+        <v>0.04909194420844541</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>130</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1009285940.425463</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3247421307.797085</v>
+        <v>3625281764.444371</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1800581834459413</v>
+        <v>0.2003553945790738</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02233279518747533</v>
+        <v>0.02078728941709031</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>131</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1623710736.722798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1759848194.044302</v>
+        <v>1617918674.569858</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1417638814564619</v>
+        <v>0.1905472514814867</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02403771949173906</v>
+        <v>0.03474832228493103</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>879924156.9706032</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5432760564.082576</v>
+        <v>5632952845.375909</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2118157009655156</v>
+        <v>0.1858706311568662</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05312908985152942</v>
+        <v>0.05150609765585158</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>174</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2716380414.907835</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3635309916.801165</v>
+        <v>2904933020.34023</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1820890043742306</v>
+        <v>0.1874331844457516</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03042902463239648</v>
+        <v>0.03573986274554924</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>171</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1817654945.631987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2359567250.100656</v>
+        <v>2759756999.054818</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1680610403641332</v>
+        <v>0.1822536059836791</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05115322710595024</v>
+        <v>0.04564201382539455</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>140</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1179783584.43299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4770086274.559498</v>
+        <v>5266110862.402669</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07134714995758554</v>
+        <v>0.0817374088378382</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02226731518642051</v>
+        <v>0.02730773052634528</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>138</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2385043153.109733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2957321973.343703</v>
+        <v>2797468820.308071</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1409429313538663</v>
+        <v>0.1847207869926564</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02828772572695968</v>
+        <v>0.03417906190035131</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1478661024.216942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1370598120.039813</v>
+        <v>1272820209.949389</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07511611216951844</v>
+        <v>0.1064796906243095</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03844227659979532</v>
+        <v>0.04018246434296974</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>685299116.1914973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1994742667.697021</v>
+        <v>2645670696.331702</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08608764050727147</v>
+        <v>0.09022448149929391</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03584493944705151</v>
+        <v>0.04665093295288995</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>84</v>
-      </c>
-      <c r="J16" t="n">
-        <v>997371409.8221</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3981947934.105109</v>
+        <v>4819301909.008027</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1362666812453895</v>
+        <v>0.1509335171512499</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04457170650781942</v>
+        <v>0.03606423804961193</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>121</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1990974002.568371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3585831211.874691</v>
+        <v>2842056424.765598</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1384548684972677</v>
+        <v>0.1803940052521493</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03056034969271443</v>
+        <v>0.02984468495198191</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>135</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1792915593.850698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1042967258.136778</v>
+        <v>1135084632.494012</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1597052122773324</v>
+        <v>0.1477461656297041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02208871359973181</v>
+        <v>0.01688715143455553</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>521483668.7857001</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2724372403.992974</v>
+        <v>1718962940.296835</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1209579005746832</v>
+        <v>0.113004049774534</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02884713649618663</v>
+        <v>0.02466882846547321</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>56</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1362186151.206927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1975269790.449467</v>
+        <v>2580519071.946944</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08461588492344263</v>
+        <v>0.06615664899495259</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04145635550841142</v>
+        <v>0.03400378406398449</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>987634933.57499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3492386278.029368</v>
+        <v>2537015793.315127</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1259547576580703</v>
+        <v>0.1366380466474715</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05729754180387297</v>
+        <v>0.04427556153449116</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1746193171.076774</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1416314898.854396</v>
+        <v>1173224596.59511</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1744500091392421</v>
+        <v>0.1307543198890458</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04623421707673357</v>
+        <v>0.04024967715360332</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>708157449.4714329</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3394821530.213251</v>
+        <v>3507094215.705703</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09566953842523618</v>
+        <v>0.1020774204313685</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02898670285654516</v>
+        <v>0.03420430698435074</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1697410773.815434</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1209454227.460217</v>
+        <v>1443982682.928626</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09250224196436271</v>
+        <v>0.07693723647607487</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02006992953124511</v>
+        <v>0.02069324945675629</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>604727129.532107</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1437760239.642523</v>
+        <v>1428369382.212508</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09040380931388217</v>
+        <v>0.07692904173227287</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03520990711937681</v>
+        <v>0.03851804758860285</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>718880199.0329881</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3757131249.161316</v>
+        <v>3313462252.016863</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1238909276819304</v>
+        <v>0.09966832816936486</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02044686110293105</v>
+        <v>0.01808236072832045</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1878565646.812008</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2345399073.020723</v>
+        <v>2837390817.812258</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1000712088873322</v>
+        <v>0.1052810806583614</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04607838384583961</v>
+        <v>0.03101133030290708</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1172699490.927488</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5045416477.404065</v>
+        <v>4171234889.260661</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1204292841371215</v>
+        <v>0.1474508200228746</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03597785106036146</v>
+        <v>0.03191528334424514</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>182</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2522708183.135324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1881895118.87535</v>
+        <v>1481091718.869975</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1314282977481061</v>
+        <v>0.1363033771480538</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02954439462540005</v>
+        <v>0.03743944557539235</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>940947583.4366069</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1492869855.350358</v>
+        <v>909685318.8056942</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08200005184932044</v>
+        <v>0.1040408346241331</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04645088708521034</v>
+        <v>0.04162672708232906</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>746434810.2229321</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1847027476.944245</v>
+        <v>1197943510.02281</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08683152212673498</v>
+        <v>0.09128603224035201</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03082196721995984</v>
+        <v>0.03074308641701621</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>923513878.6963964</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2311107546.872154</v>
+        <v>2533978084.489748</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1728293013790159</v>
+        <v>0.1342973936061169</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04622959271604805</v>
+        <v>0.04794667185047475</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>124</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1155553827.769584</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1399272122.313945</v>
+        <v>1005039162.961121</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1033264381890337</v>
+        <v>0.1092221649089857</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02343654128930303</v>
+        <v>0.01730602205226166</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>699636033.551275</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1154010199.862102</v>
+        <v>1057454444.564111</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07425154227253172</v>
+        <v>0.1001267150566317</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03887514411748175</v>
+        <v>0.02739423222739551</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>577005084.7468157</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2007342922.241779</v>
+        <v>2064618478.664756</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1661795732247228</v>
+        <v>0.1793552211077001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0278950424211389</v>
+        <v>0.02336652322130704</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>104</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1003671522.586762</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2686186509.748531</v>
+        <v>2393266977.350417</v>
       </c>
       <c r="F37" t="n">
-        <v>0.067993052279471</v>
+        <v>0.0974705592926819</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03492644457553762</v>
+        <v>0.03535292389890618</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>111</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1343093376.566401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1704467664.356909</v>
+        <v>1845351006.508903</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1047390168271606</v>
+        <v>0.08821220731409435</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02921231422031988</v>
+        <v>0.02724302846880164</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>852233852.5644326</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1708850102.095368</v>
+        <v>1651976681.779311</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1440608642722511</v>
+        <v>0.1658574725483756</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02089643295020569</v>
+        <v>0.03180374842267288</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>854425089.7891853</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1262093765.176593</v>
+        <v>1612709124.045427</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1495642568348689</v>
+        <v>0.1193692867650762</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04693679934406012</v>
+        <v>0.05886756226065609</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>631046908.3569148</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2127798706.371594</v>
+        <v>2254396417.177885</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1161292753000168</v>
+        <v>0.1380037988149091</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03928182505058857</v>
+        <v>0.03006613962190043</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1063899414.895899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4234966063.916094</v>
+        <v>2693683756.018098</v>
       </c>
       <c r="F42" t="n">
-        <v>0.111746540908162</v>
+        <v>0.1214337618386158</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04055818667891511</v>
+        <v>0.03263091416426497</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2117483077.411803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2975697577.137178</v>
+        <v>2608776268.662323</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1579204979234592</v>
+        <v>0.1756250146540672</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01779355688005294</v>
+        <v>0.02093075504173687</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>143</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1487848789.415446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1597642981.6631</v>
+        <v>1465102685.20558</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08130542300654885</v>
+        <v>0.06670116677222719</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03428320401280146</v>
+        <v>0.03278352378566807</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>798821516.9062747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1644692491.269946</v>
+        <v>2103435152.541791</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1433733148759509</v>
+        <v>0.1512917184378635</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05030557142845588</v>
+        <v>0.04736848126694829</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>822346200.6807426</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5385489460.344027</v>
+        <v>5426868281.147533</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1611898020382469</v>
+        <v>0.1781869792202135</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04670592837832394</v>
+        <v>0.05796742872337336</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>147</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2692744779.085306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3303712230.259089</v>
+        <v>4869822629.858462</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1845233354235644</v>
+        <v>0.1880068169778691</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0527800157966711</v>
+        <v>0.03861851499570973</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>111</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1651856074.835661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3185327053.636996</v>
+        <v>2936005709.744864</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1096450687389806</v>
+        <v>0.09322173409743448</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03873915349077976</v>
+        <v>0.03574578096523803</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1592663608.531258</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1324152717.163151</v>
+        <v>1702974039.031452</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1608736857468189</v>
+        <v>0.1812840233478521</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03970371018114195</v>
+        <v>0.03452641692648765</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>662076417.949356</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2591017799.097698</v>
+        <v>3319536957.778945</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1098491836794153</v>
+        <v>0.1485271828352202</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05081407479026542</v>
+        <v>0.04948632633373259</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>141</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1295508988.481524</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1526427329.756782</v>
+        <v>1024741549.528047</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1531761105283712</v>
+        <v>0.1346910512069318</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03807630701049482</v>
+        <v>0.05318957547493492</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>763213663.5426164</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3758133475.69417</v>
+        <v>3213692984.963534</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1046146398786811</v>
+        <v>0.1107096015930891</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06079367449243932</v>
+        <v>0.05141586606185897</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>170</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1879066808.575983</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3786510605.063588</v>
+        <v>2355571027.318724</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1317248449907715</v>
+        <v>0.1940338692822136</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02448074932226164</v>
+        <v>0.0291111845719867</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>120</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1893255280.637122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4550470860.383789</v>
+        <v>3203009289.286851</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1226599719933892</v>
+        <v>0.1102573725954645</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03749092802873692</v>
+        <v>0.05114789840378683</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2275235537.508548</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3299755882.214869</v>
+        <v>3801222944.509951</v>
       </c>
       <c r="F55" t="n">
-        <v>0.170057541987777</v>
+        <v>0.2204850270625876</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02775671820387981</v>
+        <v>0.02430932076534403</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1649877885.155523</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1627265979.995611</v>
+        <v>1415424505.41753</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1216693279516845</v>
+        <v>0.1211380985857915</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04805575981624852</v>
+        <v>0.04185746552857465</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>813633013.4234705</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3631661659.687052</v>
+        <v>3551090975.186605</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1212834146855252</v>
+        <v>0.1278442708030105</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01954549431917095</v>
+        <v>0.02281065233702565</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>132</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1815830887.300773</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1429763539.589664</v>
+        <v>1546537858.502198</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1493787888882027</v>
+        <v>0.1949035795807391</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03443890678359167</v>
+        <v>0.03007418368796894</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>714881807.3509649</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4755180362.97147</v>
+        <v>3570493698.921526</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1009606165877923</v>
+        <v>0.09568115670430789</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04231496965363189</v>
+        <v>0.04321604068696101</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>118</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2377590121.03039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2633092577.563141</v>
+        <v>3377556982.619385</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1515657213334302</v>
+        <v>0.1422307226095432</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03080141142394744</v>
+        <v>0.02138313043417225</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>128</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1316546320.663071</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2132800373.439433</v>
+        <v>3315366203.080218</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1169008772636734</v>
+        <v>0.1759733489383025</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02257438210174393</v>
+        <v>0.02958305831583075</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>142</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1066400248.981075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2088280997.82726</v>
+        <v>1523337296.428806</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1529267075579866</v>
+        <v>0.1436807290590209</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03032113814837222</v>
+        <v>0.04949649366449912</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1044140570.239049</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5490864193.953565</v>
+        <v>5333871318.318796</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08484449808605544</v>
+        <v>0.1066034625380033</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03279934080345014</v>
+        <v>0.03486287025204978</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2745432092.852591</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5515820384.990028</v>
+        <v>5498914684.714797</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1300280524837984</v>
+        <v>0.1866260272032883</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02170008855022048</v>
+        <v>0.0318003408600686</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>129</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2757910334.980055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4621685692.195522</v>
+        <v>4273678362.189084</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1391366315956736</v>
+        <v>0.1725001841831254</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02205306271114916</v>
+        <v>0.02442802283352061</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>148</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2310842827.603926</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4456994917.805723</v>
+        <v>5234207800.106535</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1627317444112557</v>
+        <v>0.1308335186574235</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04538075433782869</v>
+        <v>0.04776279220930436</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>122</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2228497456.986646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2189762846.15929</v>
+        <v>2480818778.819479</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06738668482520167</v>
+        <v>0.07142932425345981</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04335490965656348</v>
+        <v>0.04658068212473215</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>132</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1094881509.9278</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5937231705.244421</v>
+        <v>3718357727.353536</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09883149469325425</v>
+        <v>0.1532260426135421</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05054093037665704</v>
+        <v>0.04733125795335036</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2968615965.820815</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2345803191.702176</v>
+        <v>1757967663.589459</v>
       </c>
       <c r="F69" t="n">
-        <v>0.158523676035972</v>
+        <v>0.1311637786533576</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04236997627437628</v>
+        <v>0.03689939223022458</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1172901645.559958</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3000380422.599759</v>
+        <v>2898441474.421996</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06562809321128117</v>
+        <v>0.06287293230322687</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03845862285020941</v>
+        <v>0.04454836474079077</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>118</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1500190188.308546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4963028803.923163</v>
+        <v>3868709759.049182</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1172502510707895</v>
+        <v>0.112515453853608</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02970331639668652</v>
+        <v>0.026628495706954</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>150</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2481514504.907501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1711719339.914622</v>
+        <v>2231879882.782403</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09008926132042287</v>
+        <v>0.09598336128361636</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04373420560231709</v>
+        <v>0.03901970872090121</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>855859662.8288634</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3047107949.392065</v>
+        <v>2515489704.387057</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07896981608270014</v>
+        <v>0.07272813874645565</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04570354027752704</v>
+        <v>0.03277729548320042</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>156</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1523553966.383344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2463842938.408345</v>
+        <v>3326906718.122134</v>
       </c>
       <c r="F74" t="n">
-        <v>0.17957383960985</v>
+        <v>0.1287717436727561</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02318638414727068</v>
+        <v>0.03457812158109039</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>141</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1231921580.970376</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2346787692.580177</v>
+        <v>1946862384.629301</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1312467714435571</v>
+        <v>0.118178340711573</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03204378757974826</v>
+        <v>0.03770006058688403</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1173393777.950706</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4621412488.711801</v>
+        <v>4948213704.563739</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08184006822616491</v>
+        <v>0.07570032097028083</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02068113228357151</v>
+        <v>0.03006802226598408</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2310706255.145414</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2168137455.583549</v>
+        <v>2205914291.147077</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1636471033799121</v>
+        <v>0.1712406340847519</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02271887314364017</v>
+        <v>0.02448315930593695</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1084068814.158817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3943380257.684879</v>
+        <v>3504143653.123937</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1285622603064437</v>
+        <v>0.1128330478365502</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03830454486811908</v>
+        <v>0.04847065159905237</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>143</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1971690098.645666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1462860191.181502</v>
+        <v>1330788183.13468</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1688467079648158</v>
+        <v>0.1326581544464041</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02757341551494439</v>
+        <v>0.02467927702593941</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>731430123.3290123</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4153445358.326111</v>
+        <v>4219995991.726038</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09463810449235686</v>
+        <v>0.1118201954437471</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02865481075252265</v>
+        <v>0.03525066313987649</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>91</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2076722686.29735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3869443899.89145</v>
+        <v>3413800656.755075</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09210825017237859</v>
+        <v>0.1150650847391195</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02468428638113846</v>
+        <v>0.0207834801251022</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>98</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1934721908.335406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4514021288.402505</v>
+        <v>4263402957.117578</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1568552559690195</v>
+        <v>0.1915868395428259</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02953864019095813</v>
+        <v>0.02932830716291607</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2257010655.29882</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2040680666.77541</v>
+        <v>1997642016.40937</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1328031025344911</v>
+        <v>0.1116832044971272</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0419486736150937</v>
+        <v>0.02811673316377989</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1020340323.80627</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2160631895.52005</v>
+        <v>2383717971.373582</v>
       </c>
       <c r="F84" t="n">
-        <v>0.116214665808051</v>
+        <v>0.1211714296840425</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04132383975301556</v>
+        <v>0.03710095148006198</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1080315929.305174</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3684101061.497017</v>
+        <v>2810651529.749681</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1319360234701177</v>
+        <v>0.1424487378688449</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03674126550150883</v>
+        <v>0.04063771615900438</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>156</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1842050666.468132</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1734732815.983547</v>
+        <v>2757179662.499837</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1108508621530442</v>
+        <v>0.1245714913738666</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01828832874462595</v>
+        <v>0.01931943720209498</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>867366398.7348748</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1374748136.031828</v>
+        <v>1083685003.458973</v>
       </c>
       <c r="F87" t="n">
-        <v>0.144342266797605</v>
+        <v>0.1250175396012291</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03801292826779543</v>
+        <v>0.03729815359783107</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>687374168.4215204</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3269567415.482198</v>
+        <v>3517291570.538282</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1430342565673839</v>
+        <v>0.1289412611938835</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03423825283073757</v>
+        <v>0.03602201405920485</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>164</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1634783764.835575</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2242421463.064903</v>
+        <v>3272013195.403186</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1499979081677344</v>
+        <v>0.1582742917872494</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03311675487513557</v>
+        <v>0.02707061927797193</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>139</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1121210825.180668</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2016611611.416032</v>
+        <v>2092143229.613034</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08969220537574232</v>
+        <v>0.1270611790360108</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04583057717155824</v>
+        <v>0.04365913216659998</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1008305878.991013</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1273554288.867181</v>
+        <v>1284476518.6697</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1326436071810249</v>
+        <v>0.1780620527460784</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05527951125565351</v>
+        <v>0.0563682026601533</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>636777213.5766845</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2984171177.890337</v>
+        <v>2097974938.492573</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09014749114754866</v>
+        <v>0.08814752921250424</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03483956491083465</v>
+        <v>0.03406057143488705</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>119</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1492085609.481991</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4391092725.764234</v>
+        <v>3135307261.593358</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1083677143378987</v>
+        <v>0.1138039278673874</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04477147802232365</v>
+        <v>0.03843917950791683</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2195546338.235902</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2264240891.33219</v>
+        <v>1566294250.103614</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1449050046707805</v>
+        <v>0.1148079807540634</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03646843541744497</v>
+        <v>0.03278642827708995</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1132120478.484909</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3005729182.385755</v>
+        <v>2799948890.077472</v>
       </c>
       <c r="F95" t="n">
-        <v>0.10464869594458</v>
+        <v>0.1362144840359069</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04808852694712289</v>
+        <v>0.04399256723045823</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>101</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1502864590.504915</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1976697499.179301</v>
+        <v>2205645258.495627</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1408292950011983</v>
+        <v>0.1083389486975175</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04659264354029366</v>
+        <v>0.03366047033071714</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>988348739.0605592</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4074534567.8462</v>
+        <v>4584512695.765489</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1509685431768197</v>
+        <v>0.1294089512770736</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01884020170620621</v>
+        <v>0.02477771458669267</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>134</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2037267346.308093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3748277853.833932</v>
+        <v>2907710949.951641</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1198182953508563</v>
+        <v>0.1013355623474801</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03167970866657659</v>
+        <v>0.025499203935491</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1874138962.3618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2376313787.439991</v>
+        <v>2537599391.968727</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1038568724360316</v>
+        <v>0.1406103409777848</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03461424253978251</v>
+        <v>0.03492483293474005</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>129</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1188156834.54848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3421947098.852728</v>
+        <v>3370361091.284778</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1092687006575074</v>
+        <v>0.1402728743684793</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02661394357560759</v>
+        <v>0.02148108769777976</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1710973573.977805</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2297417619.143593</v>
+        <v>3130678477.023047</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1993735461291904</v>
+        <v>0.2093986006120772</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03968254289681644</v>
+        <v>0.03787511034929166</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>167</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1148708805.772115</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_414.xlsx
+++ b/output/fit_clients/fit_round_414.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1627537287.676662</v>
+        <v>1780002567.093987</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07534817339376712</v>
+        <v>0.09832301168312094</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04388556606930664</v>
+        <v>0.03445972479032844</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2587204284.021808</v>
+        <v>2256325136.874474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1161899585962549</v>
+        <v>0.1421956554502041</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04054686176158949</v>
+        <v>0.04701959667521498</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3450976554.330574</v>
+        <v>4808833540.904345</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1224419316134895</v>
+        <v>0.1218292427874754</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03532385669524597</v>
+        <v>0.03133548787462838</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3875387022.213373</v>
+        <v>3570755654.142733</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09067057687978718</v>
+        <v>0.09861186950069134</v>
       </c>
       <c r="G5" t="n">
-        <v>0.046323971421439</v>
+        <v>0.04299970553732922</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2106673668.128236</v>
+        <v>2573730357.335392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1283668761725362</v>
+        <v>0.1009938538433241</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04720633817860556</v>
+        <v>0.05577525590399233</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2965971192.936816</v>
+        <v>2230741874.133836</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07311467856410654</v>
+        <v>0.07872046111177133</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04909194420844541</v>
+        <v>0.03654413670700736</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3625281764.444371</v>
+        <v>2763204729.858366</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2003553945790738</v>
+        <v>0.1865479320929389</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02078728941709031</v>
+        <v>0.0323634606194231</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1617918674.569858</v>
+        <v>2244970636.731246</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1905472514814867</v>
+        <v>0.1587709076433826</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03474832228493103</v>
+        <v>0.03357733899747623</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5632952845.375909</v>
+        <v>5687214708.775063</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1858706311568662</v>
+        <v>0.1790353344301101</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05150609765585158</v>
+        <v>0.03904942014710495</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2904933020.34023</v>
+        <v>2766323732.33476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1874331844457516</v>
+        <v>0.1876966540156352</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03573986274554924</v>
+        <v>0.0398865879897157</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2759756999.054818</v>
+        <v>2747942251.38239</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1822536059836791</v>
+        <v>0.1938849266481163</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04564201382539455</v>
+        <v>0.04550410882391257</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5266110862.402669</v>
+        <v>3396613250.403835</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0817374088378382</v>
+        <v>0.07540143710615485</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02730773052634528</v>
+        <v>0.02798355229356856</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2797468820.308071</v>
+        <v>3605646366.061333</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1847207869926564</v>
+        <v>0.1242553594920315</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03417906190035131</v>
+        <v>0.03253914373208645</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1272820209.949389</v>
+        <v>1181811378.184133</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1064796906243095</v>
+        <v>0.09920200528356844</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04018246434296974</v>
+        <v>0.0307340812483607</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2645670696.331702</v>
+        <v>2463651555.24765</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09022448149929391</v>
+        <v>0.07788645072798152</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04665093295288995</v>
+        <v>0.04186241425701757</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4819301909.008027</v>
+        <v>4750662264.702214</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1509335171512499</v>
+        <v>0.1587101709206557</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03606423804961193</v>
+        <v>0.0491988135537397</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2842056424.765598</v>
+        <v>3828789253.514032</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1803940052521493</v>
+        <v>0.1235297731954322</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02984468495198191</v>
+        <v>0.02367121796225961</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1135084632.494012</v>
+        <v>954938071.1549362</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1477461656297041</v>
+        <v>0.1801229703701602</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01688715143455553</v>
+        <v>0.01676434890223777</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1718962940.296835</v>
+        <v>2276231874.892447</v>
       </c>
       <c r="F20" t="n">
-        <v>0.113004049774534</v>
+        <v>0.1057489546519411</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02466882846547321</v>
+        <v>0.02634635088986157</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2580519071.946944</v>
+        <v>2643435353.267065</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06615664899495259</v>
+        <v>0.07705146669807958</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03400378406398449</v>
+        <v>0.03202973793698632</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2537015793.315127</v>
+        <v>4050260939.476466</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1366380466474715</v>
+        <v>0.1198191992786067</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04427556153449116</v>
+        <v>0.05375688119107327</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1173224596.59511</v>
+        <v>1036823929.314699</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1307543198890458</v>
+        <v>0.1433255552966186</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04024967715360332</v>
+        <v>0.0445416752762635</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3507094215.705703</v>
+        <v>3587536546.608511</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1020774204313685</v>
+        <v>0.1415324970717571</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03420430698435074</v>
+        <v>0.02987829606461781</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1443982682.928626</v>
+        <v>1181676527.458182</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07693723647607487</v>
+        <v>0.1141317655789913</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02069324945675629</v>
+        <v>0.02886892763575375</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1428369382.212508</v>
+        <v>1371948513.513297</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07692904173227287</v>
+        <v>0.09889768052673682</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03851804758860285</v>
+        <v>0.03533806328990383</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3313462252.016863</v>
+        <v>3126219366.6538</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09966832816936486</v>
+        <v>0.1051244005831942</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01808236072832045</v>
+        <v>0.02089232450672683</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2837390817.812258</v>
+        <v>2350105962.899683</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1052810806583614</v>
+        <v>0.1079430315056842</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03101133030290708</v>
+        <v>0.04427615844891666</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4171234889.260661</v>
+        <v>4383120639.126081</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1474508200228746</v>
+        <v>0.1164583934420585</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03191528334424514</v>
+        <v>0.03543113789119624</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1481091718.869975</v>
+        <v>2053596240.849633</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1363033771480538</v>
+        <v>0.085437704774497</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03743944557539235</v>
+        <v>0.03495332720074836</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>909685318.8056942</v>
+        <v>1328663290.790314</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1040408346241331</v>
+        <v>0.1096068514029451</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04162672708232906</v>
+        <v>0.04112108612094049</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1197943510.02281</v>
+        <v>1659548099.944785</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09128603224035201</v>
+        <v>0.0918716577740656</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03074308641701621</v>
+        <v>0.02336333309350109</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2533978084.489748</v>
+        <v>2623985882.148164</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1342973936061169</v>
+        <v>0.1831278823400356</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04794667185047475</v>
+        <v>0.05738015416054271</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1005039162.961121</v>
+        <v>1480104318.478155</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1092221649089857</v>
+        <v>0.08987766168848899</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01730602205226166</v>
+        <v>0.02438230506072138</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1057454444.564111</v>
+        <v>1078261733.44993</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1001267150566317</v>
+        <v>0.08970372382748387</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02739423222739551</v>
+        <v>0.04085847657794985</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2064618478.664756</v>
+        <v>3199534666.393466</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1793552211077001</v>
+        <v>0.1263019918483022</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02336652322130704</v>
+        <v>0.01805534326240331</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2393266977.350417</v>
+        <v>2804504442.664571</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0974705592926819</v>
+        <v>0.08850349150874554</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03535292389890618</v>
+        <v>0.03279255693960297</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1845351006.508903</v>
+        <v>1848666730.395445</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08821220731409435</v>
+        <v>0.1032282088137963</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02724302846880164</v>
+        <v>0.02518736890071314</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1651976681.779311</v>
+        <v>2041307749.56796</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1658574725483756</v>
+        <v>0.1220672991994481</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03180374842267288</v>
+        <v>0.02682425281065271</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1612709124.045427</v>
+        <v>1111503103.320544</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1193692867650762</v>
+        <v>0.1091166709479622</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05886756226065609</v>
+        <v>0.03744973554903131</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2254396417.177885</v>
+        <v>2210852696.09093</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1380037988149091</v>
+        <v>0.116772669443253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03006613962190043</v>
+        <v>0.04486752207311227</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2693683756.018098</v>
+        <v>4047578657.353683</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1214337618386158</v>
+        <v>0.1136657692880592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03263091416426497</v>
+        <v>0.03676194787710214</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2608776268.662323</v>
+        <v>2892439266.764913</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1756250146540672</v>
+        <v>0.1719460639675312</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02093075504173687</v>
+        <v>0.02066995606436651</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1465102685.20558</v>
+        <v>2051428569.997557</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06670116677222719</v>
+        <v>0.09634704937818013</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03278352378566807</v>
+        <v>0.03040429876038456</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2103435152.541791</v>
+        <v>1668943798.950457</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1512917184378635</v>
+        <v>0.1461467019135633</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04736848126694829</v>
+        <v>0.0400510264593347</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5426868281.147533</v>
+        <v>3732377179.395464</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1781869792202135</v>
+        <v>0.1189856386072253</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05796742872337336</v>
+        <v>0.04064941936273653</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4869822629.858462</v>
+        <v>3707532620.450544</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1880068169778691</v>
+        <v>0.1918995331241324</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03861851499570973</v>
+        <v>0.04315318861972312</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2936005709.744864</v>
+        <v>3517707778.466383</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09322173409743448</v>
+        <v>0.09122483530974372</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03574578096523803</v>
+        <v>0.03332133503682056</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1702974039.031452</v>
+        <v>1963577369.286775</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1812840233478521</v>
+        <v>0.1626547609239435</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03452641692648765</v>
+        <v>0.03754014237599254</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3319536957.778945</v>
+        <v>4154817642.248159</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1485271828352202</v>
+        <v>0.1264740759029708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04948632633373259</v>
+        <v>0.04469043501436323</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1024741549.528047</v>
+        <v>1022221028.138521</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1346910512069318</v>
+        <v>0.1376849086818207</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05318957547493492</v>
+        <v>0.05002181251152574</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3213692984.963534</v>
+        <v>3359518569.776543</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1107096015930891</v>
+        <v>0.09205788833613222</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05141586606185897</v>
+        <v>0.04555172300451717</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2355571027.318724</v>
+        <v>2624042669.881805</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1940338692822136</v>
+        <v>0.1751437938644554</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0291111845719867</v>
+        <v>0.02656059320456964</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3203009289.286851</v>
+        <v>4484848575.732518</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1102573725954645</v>
+        <v>0.1347470720802246</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05114789840378683</v>
+        <v>0.03269918819525573</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3801222944.509951</v>
+        <v>4343108833.883496</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2204850270625876</v>
+        <v>0.2177479855573506</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02430932076534403</v>
+        <v>0.03035930707045872</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1415424505.41753</v>
+        <v>1145374901.21591</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1211380985857915</v>
+        <v>0.133328374078442</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04185746552857465</v>
+        <v>0.03540259989811595</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3551090975.186605</v>
+        <v>2849522878.359442</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1278442708030105</v>
+        <v>0.112647226416193</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02281065233702565</v>
+        <v>0.02732806114128872</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1546537858.502198</v>
+        <v>1820505694.149351</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1949035795807391</v>
+        <v>0.1337930835741019</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03007418368796894</v>
+        <v>0.03907461685221805</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3570493698.921526</v>
+        <v>4212684897.162529</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09568115670430789</v>
+        <v>0.1301799515197398</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04321604068696101</v>
+        <v>0.04837685540627953</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3377556982.619385</v>
+        <v>3170305140.094193</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1422307226095432</v>
+        <v>0.1620822569489157</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02138313043417225</v>
+        <v>0.02407193880596403</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3315366203.080218</v>
+        <v>2792643666.682096</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1759733489383025</v>
+        <v>0.1276537732607904</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02958305831583075</v>
+        <v>0.02878876256169174</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1523337296.428806</v>
+        <v>1532725077.382633</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1436807290590209</v>
+        <v>0.1758162903478543</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04949649366449912</v>
+        <v>0.04034217329650736</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5333871318.318796</v>
+        <v>4636823720.450154</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1066034625380033</v>
+        <v>0.09560698152055992</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03486287025204978</v>
+        <v>0.03739707047002336</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5498914684.714797</v>
+        <v>3395269310.538463</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1866260272032883</v>
+        <v>0.1883257708496004</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0318003408600686</v>
+        <v>0.03118149459870651</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4273678362.189084</v>
+        <v>5573876790.337832</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1725001841831254</v>
+        <v>0.1293594995344527</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02442802283352061</v>
+        <v>0.02091464113780091</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5234207800.106535</v>
+        <v>3953669748.292313</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1308335186574235</v>
+        <v>0.1342390108320649</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04776279220930436</v>
+        <v>0.03998654153665264</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2480818778.819479</v>
+        <v>2878902096.569324</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07142932425345981</v>
+        <v>0.1000916205542332</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04658068212473215</v>
+        <v>0.04792613499986263</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3718357727.353536</v>
+        <v>5629530276.371133</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1532260426135421</v>
+        <v>0.1604560904218149</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04733125795335036</v>
+        <v>0.04864012551418908</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1757967663.589459</v>
+        <v>2035442609.270714</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1311637786533576</v>
+        <v>0.119865230828606</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03689939223022458</v>
+        <v>0.05737016557351199</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2898441474.421996</v>
+        <v>2373288336.095908</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06287293230322687</v>
+        <v>0.06663434596750208</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04454836474079077</v>
+        <v>0.03584961247540171</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3868709759.049182</v>
+        <v>4522353338.819059</v>
       </c>
       <c r="F71" t="n">
-        <v>0.112515453853608</v>
+        <v>0.1619777418580395</v>
       </c>
       <c r="G71" t="n">
-        <v>0.026628495706954</v>
+        <v>0.02192873330211578</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2231879882.782403</v>
+        <v>2234910170.843394</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09598336128361636</v>
+        <v>0.08619215823930772</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03901970872090121</v>
+        <v>0.05125728175929984</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2515489704.387057</v>
+        <v>2348566974.763894</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07272813874645565</v>
+        <v>0.104378786197748</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03277729548320042</v>
+        <v>0.04189241269778361</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3326906718.122134</v>
+        <v>3067360378.744268</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1287717436727561</v>
+        <v>0.1328433638686569</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03457812158109039</v>
+        <v>0.02298261007948856</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1946862384.629301</v>
+        <v>1880301566.569649</v>
       </c>
       <c r="F75" t="n">
-        <v>0.118178340711573</v>
+        <v>0.1502890324383561</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03770006058688403</v>
+        <v>0.02661394233860505</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4948213704.563739</v>
+        <v>4024581266.180799</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07570032097028083</v>
+        <v>0.1012891059669185</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03006802226598408</v>
+        <v>0.02331730217753399</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2205914291.147077</v>
+        <v>1676857195.513252</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1712406340847519</v>
+        <v>0.1272304385555194</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02448315930593695</v>
+        <v>0.03179589610897389</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3504143653.123937</v>
+        <v>3108205866.046664</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1128330478365502</v>
+        <v>0.08318356036121477</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04847065159905237</v>
+        <v>0.04110268744870763</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1330788183.13468</v>
+        <v>1225378419.241487</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1326581544464041</v>
+        <v>0.1071989756385953</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02467927702593941</v>
+        <v>0.0280240117338361</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4219995991.726038</v>
+        <v>5419467387.147866</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1118201954437471</v>
+        <v>0.07588574670817033</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03525066313987649</v>
+        <v>0.02561588787212461</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3413800656.755075</v>
+        <v>3175430120.604542</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1150650847391195</v>
+        <v>0.1311953297856516</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0207834801251022</v>
+        <v>0.0293991683556526</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4263402957.117578</v>
+        <v>4470667305.028655</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1915868395428259</v>
+        <v>0.1740521792783388</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02932830716291607</v>
+        <v>0.02905069809944593</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1997642016.40937</v>
+        <v>1937766038.5226</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1116832044971272</v>
+        <v>0.1141861324529617</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02811673316377989</v>
+        <v>0.03071370944420705</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2383717971.373582</v>
+        <v>2472094893.552851</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1211714296840425</v>
+        <v>0.07566373143528751</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03710095148006198</v>
+        <v>0.05240637324520272</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2810651529.749681</v>
+        <v>3097813848.043242</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1424487378688449</v>
+        <v>0.1484632691918834</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04063771615900438</v>
+        <v>0.03776418904614039</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2757179662.499837</v>
+        <v>2241476887.533648</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1245714913738666</v>
+        <v>0.1142734743007628</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01931943720209498</v>
+        <v>0.02631805451145262</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1083685003.458973</v>
+        <v>1332438591.226862</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1250175396012291</v>
+        <v>0.1615082719443114</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03729815359783107</v>
+        <v>0.03924405594622789</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3517291570.538282</v>
+        <v>2855026329.085277</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1289412611938835</v>
+        <v>0.1731236856000412</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03602201405920485</v>
+        <v>0.0258478856939836</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3272013195.403186</v>
+        <v>2539652480.987255</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1582742917872494</v>
+        <v>0.09717972243983231</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02707061927797193</v>
+        <v>0.02652682510041668</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2092143229.613034</v>
+        <v>2023613885.055273</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1270611790360108</v>
+        <v>0.1134424875030028</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04365913216659998</v>
+        <v>0.0528826185960613</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1284476518.6697</v>
+        <v>2051823305.324717</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1780620527460784</v>
+        <v>0.1957817071198745</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0563682026601533</v>
+        <v>0.05573507449546445</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2097974938.492573</v>
+        <v>1831993274.984087</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08814752921250424</v>
+        <v>0.1059530954843369</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03406057143488705</v>
+        <v>0.03856985590035918</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3135307261.593358</v>
+        <v>4553436311.465068</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1138039278673874</v>
+        <v>0.08646735720374932</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03843917950791683</v>
+        <v>0.05060314242175337</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1566294250.103614</v>
+        <v>1818681003.30696</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1148079807540634</v>
+        <v>0.1632040662623426</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03278642827708995</v>
+        <v>0.03838442524177083</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2799948890.077472</v>
+        <v>2797836147.628937</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1362144840359069</v>
+        <v>0.09680267009869524</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04399256723045823</v>
+        <v>0.04604980956663447</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2205645258.495627</v>
+        <v>2040762969.108784</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1083389486975175</v>
+        <v>0.08964797795553163</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03366047033071714</v>
+        <v>0.03454036744063119</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4584512695.765489</v>
+        <v>4618600653.89405</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1294089512770736</v>
+        <v>0.1572562572094132</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02477771458669267</v>
+        <v>0.0210077812734251</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2907710949.951641</v>
+        <v>3770794088.132087</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1013355623474801</v>
+        <v>0.09045240003587186</v>
       </c>
       <c r="G98" t="n">
-        <v>0.025499203935491</v>
+        <v>0.0212023820977131</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2537599391.968727</v>
+        <v>2674691072.194875</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1406103409777848</v>
+        <v>0.120281518918943</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03492483293474005</v>
+        <v>0.03484375389456892</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3370361091.284778</v>
+        <v>3104204834.65849</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1402728743684793</v>
+        <v>0.1781186594179889</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02148108769777976</v>
+        <v>0.02105969904590389</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3130678477.023047</v>
+        <v>3485457525.677841</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2093986006120772</v>
+        <v>0.1771783513192841</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03787511034929166</v>
+        <v>0.0393501015698193</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_414.xlsx
+++ b/output/fit_clients/fit_round_414.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1780002567.093987</v>
+        <v>1669954516.727338</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09832301168312094</v>
+        <v>0.09208069701066472</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03445972479032844</v>
+        <v>0.03166223867760405</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2256325136.874474</v>
+        <v>1725317346.8011</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1421956554502041</v>
+        <v>0.1328043361430771</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04701959667521498</v>
+        <v>0.0460165059535393</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4808833540.904345</v>
+        <v>3862595087.781691</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1218292427874754</v>
+        <v>0.12215841748514</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03133548787462838</v>
+        <v>0.03596825912969982</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>209</v>
+      </c>
+      <c r="J4" t="n">
+        <v>414</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3570755654.142733</v>
+        <v>3660174632.190222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09861186950069134</v>
+        <v>0.07173774010179865</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04299970553732922</v>
+        <v>0.04509497999071817</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>171</v>
+      </c>
+      <c r="J5" t="n">
+        <v>414</v>
+      </c>
+      <c r="K5" t="n">
+        <v>51.39319038050817</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2573730357.335392</v>
+        <v>2023953516.387494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1009938538433241</v>
+        <v>0.1326195204567732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05577525590399233</v>
+        <v>0.04850613684596831</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2230741874.133836</v>
+        <v>2677259670.431903</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07872046111177133</v>
+        <v>0.09684778118280006</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03654413670700736</v>
+        <v>0.03904575093687337</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2763204729.858366</v>
+        <v>2824468032.851395</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1865479320929389</v>
+        <v>0.197537356609548</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0323634606194231</v>
+        <v>0.02183859432227342</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2244970636.731246</v>
+        <v>2026753375.074136</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1587709076433826</v>
+        <v>0.1670320435835149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03357733899747623</v>
+        <v>0.03331622677227629</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5687214708.775063</v>
+        <v>3762860593.624793</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1790353344301101</v>
+        <v>0.1552682142415033</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03904942014710495</v>
+        <v>0.03984907741423447</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>332</v>
+      </c>
+      <c r="J10" t="n">
+        <v>413</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40.51451340876213</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2766323732.33476</v>
+        <v>3569087689.792945</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1876966540156352</v>
+        <v>0.1623606555030555</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0398865879897157</v>
+        <v>0.04409431974742188</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>411</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2747942251.38239</v>
+        <v>2828305667.722146</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1938849266481163</v>
+        <v>0.1790755458328236</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04550410882391257</v>
+        <v>0.04433031062277015</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3396613250.403835</v>
+        <v>3429405135.676603</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07540143710615485</v>
+        <v>0.09242640874428668</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02798355229356856</v>
+        <v>0.02182345911882053</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>216</v>
+      </c>
+      <c r="J13" t="n">
+        <v>413</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36.39615670512802</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3605646366.061333</v>
+        <v>2979124511.384023</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1242553594920315</v>
+        <v>0.1828737599101985</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03253914373208645</v>
+        <v>0.03446642992083795</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>84</v>
+      </c>
+      <c r="J14" t="n">
+        <v>414</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44.71471312595112</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1181811378.184133</v>
+        <v>1148518591.784029</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09920200528356844</v>
+        <v>0.09507019614501812</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0307340812483607</v>
+        <v>0.04138836127711434</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2463651555.24765</v>
+        <v>2344050454.059328</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07788645072798152</v>
+        <v>0.07221384638047762</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04186241425701757</v>
+        <v>0.0386215126455729</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4750662264.702214</v>
+        <v>3770316034.908928</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1587101709206557</v>
+        <v>0.1553647456102074</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0491988135537397</v>
+        <v>0.05177682201022812</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>200</v>
+      </c>
+      <c r="J17" t="n">
+        <v>414</v>
+      </c>
+      <c r="K17" t="n">
+        <v>44.60364175696882</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3828789253.514032</v>
+        <v>3754384446.037011</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1235297731954322</v>
+        <v>0.1823095308138131</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02367121796225961</v>
+        <v>0.03199548008768087</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>106</v>
+      </c>
+      <c r="J18" t="n">
+        <v>414</v>
+      </c>
+      <c r="K18" t="n">
+        <v>60.64697375167435</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>954938071.1549362</v>
+        <v>1369256269.894442</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1801229703701602</v>
+        <v>0.1326714302338489</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01676434890223777</v>
+        <v>0.02102007814393713</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2276231874.892447</v>
+        <v>2109025341.112234</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1057489546519411</v>
+        <v>0.1034973307836462</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02634635088986157</v>
+        <v>0.02062249146821982</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2643435353.267065</v>
+        <v>1709392809.649214</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07705146669807958</v>
+        <v>0.06595871841957063</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03202973793698632</v>
+        <v>0.02786839979688505</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1207,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4050260939.476466</v>
+        <v>3597390027.688407</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1198191992786067</v>
+        <v>0.1037515244227496</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05375688119107327</v>
+        <v>0.04094051104281745</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>115</v>
+      </c>
+      <c r="J22" t="n">
+        <v>414</v>
+      </c>
+      <c r="K22" t="n">
+        <v>53.2544867665665</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1036823929.314699</v>
+        <v>1133435401.040613</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1433255552966186</v>
+        <v>0.1627791235519309</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0445416752762635</v>
+        <v>0.04237649739315646</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1285,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3587536546.608511</v>
+        <v>3876243892.948833</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1415324970717571</v>
+        <v>0.101848407305831</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02987829606461781</v>
+        <v>0.02390882367900959</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>129</v>
+      </c>
+      <c r="J24" t="n">
+        <v>414</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1181676527.458182</v>
+        <v>938577616.2821726</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1141317655789913</v>
+        <v>0.08381971914790791</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02886892763575375</v>
+        <v>0.01906153026703272</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1371948513.513297</v>
+        <v>1385284120.052989</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09889768052673682</v>
+        <v>0.120670394102686</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03533806328990383</v>
+        <v>0.02731185979460089</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3126219366.6538</v>
+        <v>2975541259.580837</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1051244005831942</v>
+        <v>0.1121072472377411</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02089232450672683</v>
+        <v>0.02376596194487247</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>175</v>
+      </c>
+      <c r="J27" t="n">
+        <v>413</v>
+      </c>
+      <c r="K27" t="n">
+        <v>30.6664854793057</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2350105962.899683</v>
+        <v>2617339549.278673</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1079430315056842</v>
+        <v>0.1037639226625143</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04427615844891666</v>
+        <v>0.04241335299489334</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>102</v>
+      </c>
+      <c r="J28" t="n">
+        <v>412</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4383120639.126081</v>
+        <v>4730289954.71791</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1164583934420585</v>
+        <v>0.1366965346470866</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03543113789119624</v>
+        <v>0.0367588260599663</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>347</v>
+      </c>
+      <c r="J29" t="n">
+        <v>413</v>
+      </c>
+      <c r="K29" t="n">
+        <v>40.29347191059401</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2053596240.849633</v>
+        <v>1956673379.382443</v>
       </c>
       <c r="F30" t="n">
-        <v>0.085437704774497</v>
+        <v>0.102770047519135</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03495332720074836</v>
+        <v>0.03592044719295705</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1328663290.790314</v>
+        <v>1474736721.912215</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1096068514029451</v>
+        <v>0.07620638837760112</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04112108612094049</v>
+        <v>0.03968060974346761</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1659548099.944785</v>
+        <v>1209686696.422535</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0918716577740656</v>
+        <v>0.08879857106833312</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02336333309350109</v>
+        <v>0.03866844448785139</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2623985882.148164</v>
+        <v>2321073133.822897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1831278823400356</v>
+        <v>0.164707979009756</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05738015416054271</v>
+        <v>0.04319521418089437</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1480104318.478155</v>
+        <v>956148155.2594543</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08987766168848899</v>
+        <v>0.1110323602880098</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02438230506072138</v>
+        <v>0.02122229565766629</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1078261733.44993</v>
+        <v>828680157.0862341</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08970372382748387</v>
+        <v>0.07877772351449203</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04085847657794985</v>
+        <v>0.03001522358556043</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3199534666.393466</v>
+        <v>2811043309.674551</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1263019918483022</v>
+        <v>0.1609817454189361</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01805534326240331</v>
+        <v>0.02424478478901521</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1744,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2804504442.664571</v>
+        <v>2468895675.470341</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08850349150874554</v>
+        <v>0.08151803745679899</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03279255693960297</v>
+        <v>0.03508706453042706</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1779,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1848666730.395445</v>
+        <v>1851055706.262824</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1032282088137963</v>
+        <v>0.09283250767704028</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02518736890071314</v>
+        <v>0.02986874628058674</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1814,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2041307749.56796</v>
+        <v>1445523247.427248</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1220672991994481</v>
+        <v>0.1614915792208808</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02682425281065271</v>
+        <v>0.0277683622544437</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1849,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1111503103.320544</v>
+        <v>1605648868.913848</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1091166709479622</v>
+        <v>0.1559284568894893</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03744973554903131</v>
+        <v>0.03946183484338148</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1884,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2210852696.09093</v>
+        <v>2482361603.215862</v>
       </c>
       <c r="F41" t="n">
-        <v>0.116772669443253</v>
+        <v>0.1208554066748223</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04486752207311227</v>
+        <v>0.04415022321971785</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1913,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4047578657.353683</v>
+        <v>3277569352.064555</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1136657692880592</v>
+        <v>0.1156670574266181</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03676194787710214</v>
+        <v>0.04338936371797202</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>177</v>
+      </c>
+      <c r="J42" t="n">
+        <v>409</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2892439266.764913</v>
+        <v>2343930596.4974</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1719460639675312</v>
+        <v>0.1466605411081918</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02066995606436651</v>
+        <v>0.02117913022270954</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2051428569.997557</v>
+        <v>2112086404.146251</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09634704937818013</v>
+        <v>0.08012578397501202</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03040429876038456</v>
+        <v>0.03027702467588735</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1668943798.950457</v>
+        <v>2005908463.88722</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1461467019135633</v>
+        <v>0.1590747593961338</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0400510264593347</v>
+        <v>0.04877456602368538</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3732377179.395464</v>
+        <v>5301002074.167691</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1189856386072253</v>
+        <v>0.1690677986254297</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04064941936273653</v>
+        <v>0.05508305548162443</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>248</v>
+      </c>
+      <c r="J46" t="n">
+        <v>414</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3707532620.450544</v>
+        <v>3610726419.134048</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1918995331241324</v>
+        <v>0.1565890062034695</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04315318861972312</v>
+        <v>0.04540936788603046</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>186</v>
+      </c>
+      <c r="J47" t="n">
+        <v>413</v>
+      </c>
+      <c r="K47" t="n">
+        <v>39.86987547589392</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2125,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3517707778.466383</v>
+        <v>3941797043.360371</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09122483530974372</v>
+        <v>0.0780929351965868</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03332133503682056</v>
+        <v>0.02534543034820289</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>213</v>
+      </c>
+      <c r="J48" t="n">
+        <v>413</v>
+      </c>
+      <c r="K48" t="n">
+        <v>44.21468416252416</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1963577369.286775</v>
+        <v>1668317268.050553</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1626547609239435</v>
+        <v>0.1414414857166576</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03754014237599254</v>
+        <v>0.03061177784307684</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2197,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4154817642.248159</v>
+        <v>3013556393.909806</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1264740759029708</v>
+        <v>0.1697879739116905</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04469043501436323</v>
+        <v>0.03365167030277115</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>143</v>
+      </c>
+      <c r="J50" t="n">
+        <v>413</v>
+      </c>
+      <c r="K50" t="n">
+        <v>34.26908832202545</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2234,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1022221028.138521</v>
+        <v>1225450366.518398</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1376849086818207</v>
+        <v>0.1774719546279458</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05002181251152574</v>
+        <v>0.04783873626610873</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2269,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3359518569.776543</v>
+        <v>4013690813.31615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09205788833613222</v>
+        <v>0.1145871185893933</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04555172300451717</v>
+        <v>0.0473233445302981</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>239</v>
+      </c>
+      <c r="J52" t="n">
+        <v>414</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2624042669.881805</v>
+        <v>3735677801.952751</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1751437938644554</v>
+        <v>0.1592598827868611</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02656059320456964</v>
+        <v>0.03247871796596394</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>59</v>
+      </c>
+      <c r="J53" t="n">
+        <v>414</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2339,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4484848575.732518</v>
+        <v>3719771147.309493</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1347470720802246</v>
+        <v>0.1342646857081164</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03269918819525573</v>
+        <v>0.04794440248514694</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>220</v>
+      </c>
+      <c r="J54" t="n">
+        <v>414</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2380,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4343108833.883496</v>
+        <v>4381503877.722116</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2177479855573506</v>
+        <v>0.1775049611886445</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03035930707045872</v>
+        <v>0.02708944528767453</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>204</v>
+      </c>
+      <c r="J55" t="n">
+        <v>414</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1145374901.21591</v>
+        <v>1476828191.084571</v>
       </c>
       <c r="F56" t="n">
-        <v>0.133328374078442</v>
+        <v>0.1203884338624679</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03540259989811595</v>
+        <v>0.05478402714916642</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2849522878.359442</v>
+        <v>3802735429.008444</v>
       </c>
       <c r="F57" t="n">
-        <v>0.112647226416193</v>
+        <v>0.1594407491331922</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02732806114128872</v>
+        <v>0.02692233427145635</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>179</v>
+      </c>
+      <c r="J57" t="n">
+        <v>414</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1820505694.149351</v>
+        <v>1465169239.996888</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1337930835741019</v>
+        <v>0.1310227738265535</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03907461685221805</v>
+        <v>0.02931329630473278</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4212684897.162529</v>
+        <v>4650749177.839504</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1301799515197398</v>
+        <v>0.1185832833918551</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04837685540627953</v>
+        <v>0.04484371495014573</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>202</v>
+      </c>
+      <c r="J59" t="n">
+        <v>414</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3170305140.094193</v>
+        <v>3751825397.995277</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1620822569489157</v>
+        <v>0.1402978652158481</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02407193880596403</v>
+        <v>0.03044402259409444</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>76</v>
+      </c>
+      <c r="J60" t="n">
+        <v>414</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2792643666.682096</v>
+        <v>2888935448.721734</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1276537732607904</v>
+        <v>0.1537476856952052</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02878876256169174</v>
+        <v>0.02450806241303782</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1532725077.382633</v>
+        <v>2102012922.318049</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1758162903478543</v>
+        <v>0.1865095920020762</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04034217329650736</v>
+        <v>0.03547069914985695</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4636823720.450154</v>
+        <v>5425403431.301747</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09560698152055992</v>
+        <v>0.08946727894108536</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03739707047002336</v>
+        <v>0.04647319592385207</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>207</v>
+      </c>
+      <c r="J63" t="n">
+        <v>413</v>
+      </c>
+      <c r="K63" t="n">
+        <v>43.39809933594535</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3395269310.538463</v>
+        <v>5259165377.504524</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1883257708496004</v>
+        <v>0.1913323327838591</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03118149459870651</v>
+        <v>0.03413266526852114</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>207</v>
+      </c>
+      <c r="J64" t="n">
+        <v>414</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5573876790.337832</v>
+        <v>4963469133.775023</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1293594995344527</v>
+        <v>0.1671005052209429</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02091464113780091</v>
+        <v>0.03021793046211349</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>304</v>
+      </c>
+      <c r="J65" t="n">
+        <v>413</v>
+      </c>
+      <c r="K65" t="n">
+        <v>43.4150367791871</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3953669748.292313</v>
+        <v>3601963649.128407</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1342390108320649</v>
+        <v>0.1307916166688244</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03998654153665264</v>
+        <v>0.03856906807260636</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>204</v>
+      </c>
+      <c r="J66" t="n">
+        <v>412</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2878902096.569324</v>
+        <v>2284020589.646806</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1000916205542332</v>
+        <v>0.08677599606705109</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04792613499986263</v>
+        <v>0.04737033789069413</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5629530276.371133</v>
+        <v>5893244462.939801</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1604560904218149</v>
+        <v>0.147925957352524</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04864012551418908</v>
+        <v>0.0322898609593251</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>226</v>
+      </c>
+      <c r="J68" t="n">
+        <v>413</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40.95236137287606</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2035442609.270714</v>
+        <v>1684004981.657844</v>
       </c>
       <c r="F69" t="n">
-        <v>0.119865230828606</v>
+        <v>0.1381579862454586</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05737016557351199</v>
+        <v>0.04930202135286017</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2373288336.095908</v>
+        <v>2712173426.065618</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06663434596750208</v>
+        <v>0.06763304212138234</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03584961247540171</v>
+        <v>0.03683635171210227</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="n">
+        <v>31.58820340677275</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4522353338.819059</v>
+        <v>4103388952.103642</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1619777418580395</v>
+        <v>0.1508895179976989</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02192873330211578</v>
+        <v>0.03126891206786816</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>291</v>
+      </c>
+      <c r="J71" t="n">
+        <v>413</v>
+      </c>
+      <c r="K71" t="n">
+        <v>42.74041267390447</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2234910170.843394</v>
+        <v>1690232797.099799</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08619215823930772</v>
+        <v>0.07055150075665856</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05125728175929984</v>
+        <v>0.04107479513150483</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2348566974.763894</v>
+        <v>2328767221.922857</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104378786197748</v>
+        <v>0.07792754773803391</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04189241269778361</v>
+        <v>0.03874056774473476</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3067360378.744268</v>
+        <v>2800507711.288924</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1328433638686569</v>
+        <v>0.1786943357803486</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02298261007948856</v>
+        <v>0.02741391685651764</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>117</v>
+      </c>
+      <c r="J74" t="n">
+        <v>411</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1880301566.569649</v>
+        <v>2220951235.436369</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1502890324383561</v>
+        <v>0.1202758294321038</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02661394233860505</v>
+        <v>0.02932054217341066</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4024581266.180799</v>
+        <v>5284195038.329724</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1012891059669185</v>
+        <v>0.08336669783782313</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02331730217753399</v>
+        <v>0.02820620300725042</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>196</v>
+      </c>
+      <c r="J76" t="n">
+        <v>414</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1676857195.513252</v>
+        <v>2100525332.932008</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1272304385555194</v>
+        <v>0.1335551965764033</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03179589610897389</v>
+        <v>0.02279596786553808</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3108205866.046664</v>
+        <v>4783548814.565315</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08318356036121477</v>
+        <v>0.1084635521853513</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04110268744870763</v>
+        <v>0.05513385137215335</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>207</v>
+      </c>
+      <c r="J78" t="n">
+        <v>413</v>
+      </c>
+      <c r="K78" t="n">
+        <v>44.31656066108708</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1225378419.241487</v>
+        <v>1582860685.190707</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1071989756385953</v>
+        <v>0.1526303646372413</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0280240117338361</v>
+        <v>0.03292618687070157</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5419467387.147866</v>
+        <v>3461949259.62161</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07588574670817033</v>
+        <v>0.08093465609175018</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02561588787212461</v>
+        <v>0.03860449021471902</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>202</v>
+      </c>
+      <c r="J80" t="n">
+        <v>412</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3175430120.604542</v>
+        <v>3478794440.768929</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1311953297856516</v>
+        <v>0.1011390557356247</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0293991683556526</v>
+        <v>0.02490285285238894</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>192</v>
+      </c>
+      <c r="J81" t="n">
+        <v>413</v>
+      </c>
+      <c r="K81" t="n">
+        <v>38.41330307379445</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4470667305.028655</v>
+        <v>4093628886.4727</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1740521792783388</v>
+        <v>0.1705769834138973</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02905069809944593</v>
+        <v>0.0200104753183627</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>281</v>
+      </c>
+      <c r="J82" t="n">
+        <v>414</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1937766038.5226</v>
+        <v>2152009229.297029</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1141861324529617</v>
+        <v>0.1544962529968717</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03071370944420705</v>
+        <v>0.04097408739320029</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2472094893.552851</v>
+        <v>1910765025.896519</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07566373143528751</v>
+        <v>0.1023207149459033</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05240637324520272</v>
+        <v>0.04285038551493581</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3097813848.043242</v>
+        <v>3651108751.105232</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1484632691918834</v>
+        <v>0.1319852655945543</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03776418904614039</v>
+        <v>0.05410873187167096</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2241476887.533648</v>
+        <v>2529095126.001938</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1142734743007628</v>
+        <v>0.1291472110750647</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02631805451145262</v>
+        <v>0.02458453434184166</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1332438591.226862</v>
+        <v>990170165.7364867</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1615082719443114</v>
+        <v>0.157016101054213</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03924405594622789</v>
+        <v>0.03257727638521925</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2855026329.085277</v>
+        <v>2301413467.973458</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1731236856000412</v>
+        <v>0.1647992926663783</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0258478856939836</v>
+        <v>0.03200849325543377</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2539652480.987255</v>
+        <v>2996660574.33324</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09717972243983231</v>
+        <v>0.09755973795216251</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02652682510041668</v>
+        <v>0.03476520500874519</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2023613885.055273</v>
+        <v>1686638398.128035</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1134424875030028</v>
+        <v>0.1227725862224196</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0528826185960613</v>
+        <v>0.05187556287574453</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2051823305.324717</v>
+        <v>1425689020.587433</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1957817071198745</v>
+        <v>0.1190106956776873</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05573507449546445</v>
+        <v>0.04690576437125805</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1831993274.984087</v>
+        <v>1912364187.890489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1059530954843369</v>
+        <v>0.07325757182496136</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03856985590035918</v>
+        <v>0.02881668619502799</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4553436311.465068</v>
+        <v>4924141215.8273</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08646735720374932</v>
+        <v>0.1054335667525732</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05060314242175337</v>
+        <v>0.0347326829786129</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>197</v>
+      </c>
+      <c r="J93" t="n">
+        <v>414</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1818681003.30696</v>
+        <v>1523556400.690616</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1632040662623426</v>
+        <v>0.1352934158212891</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03838442524177083</v>
+        <v>0.02632830571907951</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2797836147.628937</v>
+        <v>2781996936.033867</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09680267009869524</v>
+        <v>0.09606712331953107</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04604980956663447</v>
+        <v>0.04939458561961207</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2040762969.108784</v>
+        <v>1719607706.380044</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08964797795553163</v>
+        <v>0.09445055920156513</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03454036744063119</v>
+        <v>0.03734629644567823</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4618600653.89405</v>
+        <v>4191690621.778417</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1572562572094132</v>
+        <v>0.1256819045457502</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0210077812734251</v>
+        <v>0.02333748330026276</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>217</v>
+      </c>
+      <c r="J97" t="n">
+        <v>413</v>
+      </c>
+      <c r="K97" t="n">
+        <v>42.63645738189864</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3770794088.132087</v>
+        <v>3667363939.697313</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09045240003587186</v>
+        <v>0.08880495300762652</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0212023820977131</v>
+        <v>0.02724910949419247</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>414</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2674691072.194875</v>
+        <v>2990676491.561054</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120281518918943</v>
+        <v>0.141759625733355</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03484375389456892</v>
+        <v>0.02403815948358629</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3104204834.65849</v>
+        <v>3110931149.613813</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1781186594179889</v>
+        <v>0.1497772570362829</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02105969904590389</v>
+        <v>0.02386155953648196</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>193</v>
+      </c>
+      <c r="J100" t="n">
+        <v>412</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3485457525.677841</v>
+        <v>2336710975.40043</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1771783513192841</v>
+        <v>0.1497921812981126</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0393501015698193</v>
+        <v>0.05524286485104982</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
